--- a/diabetes/prevalence/Michigan.xlsx
+++ b/diabetes/prevalence/Michigan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cdc.gov\project\CCHP_NCCD_DDT_Data1\epistat\KAK\Single map county data by state\DMPREV2013\compliance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosabreu/Desktop/analise_de_midias/diabetes/prevalence/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED07E3D5-71CD-5543-B568-11685C8B6F26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25200" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_Michigan" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,19 @@
   <definedNames>
     <definedName name="IDX" localSheetId="0">data_Michigan!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="186">
   <si>
     <t>Diagnosed Diabetes Prevalence</t>
   </si>
@@ -557,11 +565,35 @@
   <si>
     <t>Wexford County</t>
   </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Número Total de casos</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Média (Lower)</t>
+  </si>
+  <si>
+    <t>Média(Upper</t>
+  </si>
+  <si>
+    <t>Numero de pessoas</t>
+  </si>
+  <si>
+    <t>Numero L</t>
+  </si>
+  <si>
+    <t>Numero H</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\_x0000_.0"/>
   </numFmts>
@@ -1272,7 +1304,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1325,6 +1357,9 @@
     <xf numFmtId="164" fontId="23" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1340,52 +1375,55 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperlink" xfId="42" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="43" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1662,189 +1700,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:BU87"/>
+  <dimension ref="A2:CD87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BR1" workbookViewId="0">
+      <selection activeCell="BW3" sqref="BW3:CD13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.1640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="8" style="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.1640625" style="1" customWidth="1"/>
     <col min="33" max="33" width="8" style="1" customWidth="1"/>
-    <col min="34" max="34" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.140625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1640625" style="1" customWidth="1"/>
     <col min="40" max="40" width="8" style="1" customWidth="1"/>
-    <col min="41" max="41" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.140625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.1640625" style="1" customWidth="1"/>
     <col min="47" max="47" width="8" style="1" customWidth="1"/>
-    <col min="48" max="48" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.140625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.1640625" style="1" customWidth="1"/>
     <col min="54" max="54" width="8" style="1" customWidth="1"/>
-    <col min="55" max="55" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.140625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.1640625" style="1" customWidth="1"/>
     <col min="61" max="61" width="8" style="1" customWidth="1"/>
-    <col min="62" max="62" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.140625" style="1" customWidth="1"/>
+    <col min="66" max="66" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="8.1640625" style="1" customWidth="1"/>
     <col min="68" max="68" width="8" style="1" customWidth="1"/>
-    <col min="69" max="69" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="16384" width="9.140625" style="1"/>
+    <col min="73" max="73" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:73" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:73" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+    <row r="2" spans="1:82" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:82" ht="18" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="18">
+      <c r="D3" s="19">
         <v>2004</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="18">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="19">
         <v>2005</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="18">
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="19">
         <v>2006</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="18">
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="19">
         <v>2007</v>
       </c>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="18">
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="19">
         <v>2008</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="18">
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="19">
         <v>2009</v>
       </c>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="18">
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="19">
         <v>2010</v>
       </c>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="18">
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="21"/>
+      <c r="BA3" s="19">
         <v>2011</v>
       </c>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="18">
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="21"/>
+      <c r="BH3" s="19">
         <v>2012</v>
       </c>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="19"/>
-      <c r="BK3" s="19"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="20"/>
-      <c r="BO3" s="18">
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="21"/>
+      <c r="BO3" s="19">
         <v>2013</v>
       </c>
-      <c r="BP3" s="19"/>
-      <c r="BQ3" s="19"/>
-      <c r="BR3" s="19"/>
-      <c r="BS3" s="19"/>
-      <c r="BT3" s="19"/>
-      <c r="BU3" s="22"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="20"/>
+      <c r="BS3" s="20"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="23"/>
+      <c r="BW3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -2064,8 +2128,39 @@
       <c r="BU4" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="BW4" s="1">
+        <v>2004</v>
+      </c>
+      <c r="BX4" s="18">
+        <f>SUM(D5:D300)</f>
+        <v>608983</v>
+      </c>
+      <c r="BY4" s="18">
+        <f>AVERAGE(E5:E300)</f>
+        <v>8.6325301204819258</v>
+      </c>
+      <c r="BZ4" s="18">
+        <f>AVERAGE(F5:F300)</f>
+        <v>6.9807228915662671</v>
+      </c>
+      <c r="CA4" s="18">
+        <f>AVERAGE(G5:G300)</f>
+        <v>10.625301204819273</v>
+      </c>
+      <c r="CB4" s="24">
+        <f>BX4*100/BY4</f>
+        <v>7054513.4682484316</v>
+      </c>
+      <c r="CC4" s="1">
+        <f>BZ4/100*CB4</f>
+        <v>492456.03656664368</v>
+      </c>
+      <c r="CD4" s="1">
+        <f>CA4/100*CB4</f>
+        <v>749563.30453593854</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -2285,8 +2380,39 @@
       <c r="BU5" s="11">
         <v>11.6</v>
       </c>
+      <c r="BW5" s="1">
+        <v>2005</v>
+      </c>
+      <c r="BX5" s="1">
+        <f>SUM(K5:K300)</f>
+        <v>633760</v>
+      </c>
+      <c r="BY5" s="18">
+        <f>AVERAGE(L5:L300)</f>
+        <v>8.955421686746984</v>
+      </c>
+      <c r="BZ5" s="18">
+        <f>AVERAGE(M5:M300)</f>
+        <v>7.0867469879518081</v>
+      </c>
+      <c r="CA5" s="18">
+        <f>AVERAGE(N5:N300)</f>
+        <v>11.257831325301206</v>
+      </c>
+      <c r="CB5" s="24">
+        <f t="shared" ref="CB5:CB13" si="0">BX5*100/BY5</f>
+        <v>7076830.351136825</v>
+      </c>
+      <c r="CC5" s="1">
+        <f t="shared" ref="CC5:CC13" si="1">BZ5/100*CB5</f>
+        <v>501517.06175164838</v>
+      </c>
+      <c r="CD5" s="1">
+        <f t="shared" ref="CD5:CD13" si="2">CA5/100*CB5</f>
+        <v>796697.62410870474</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -2506,8 +2632,39 @@
       <c r="BU6" s="11">
         <v>11.3</v>
       </c>
+      <c r="BW6" s="1">
+        <v>2006</v>
+      </c>
+      <c r="BX6" s="18">
+        <f>SUM(R5:R300)</f>
+        <v>667905</v>
+      </c>
+      <c r="BY6" s="18">
+        <f>AVERAGE(S5:S300)</f>
+        <v>9.3144578313252993</v>
+      </c>
+      <c r="BZ6" s="18">
+        <f>AVERAGE(T5:T300)</f>
+        <v>7.5530120481927732</v>
+      </c>
+      <c r="CA6" s="18">
+        <f>AVERAGE(U5:U300)</f>
+        <v>11.392771084337351</v>
+      </c>
+      <c r="CB6" s="24">
+        <f t="shared" si="0"/>
+        <v>7170626.6977105178</v>
+      </c>
+      <c r="CC6" s="1">
+        <f t="shared" si="1"/>
+        <v>541598.29840900295</v>
+      </c>
+      <c r="CD6" s="1">
+        <f t="shared" si="2"/>
+        <v>816933.08498253813</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -2727,8 +2884,39 @@
       <c r="BU7" s="11">
         <v>10.9</v>
       </c>
+      <c r="BW7" s="1">
+        <v>2007</v>
+      </c>
+      <c r="BX7" s="18">
+        <f>SUM(Y5:Y300)</f>
+        <v>708885.3</v>
+      </c>
+      <c r="BY7" s="18">
+        <f>AVERAGE(Z5:Z300)</f>
+        <v>9.7240963855421647</v>
+      </c>
+      <c r="BZ7" s="18">
+        <f>AVERAGE(AA5:AA300)</f>
+        <v>7.8060240963855421</v>
+      </c>
+      <c r="CA7" s="18">
+        <f>AVERAGE(AB5:AB300)</f>
+        <v>11.990361445783133</v>
+      </c>
+      <c r="CB7" s="24">
+        <f t="shared" si="0"/>
+        <v>7289986.3585677147</v>
+      </c>
+      <c r="CC7" s="1">
+        <f t="shared" si="1"/>
+        <v>569058.09177301475</v>
+      </c>
+      <c r="CD7" s="1">
+        <f t="shared" si="2"/>
+        <v>874095.71374055301</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -2948,8 +3136,39 @@
       <c r="BU8" s="11">
         <v>11.5</v>
       </c>
+      <c r="BW8" s="1">
+        <v>2008</v>
+      </c>
+      <c r="BX8" s="1">
+        <f>SUM(AF5:AF300)</f>
+        <v>724534.49999999988</v>
+      </c>
+      <c r="BY8" s="18">
+        <f>AVERAGE(AG5:AG300)</f>
+        <v>9.9433734939759066</v>
+      </c>
+      <c r="BZ8" s="18">
+        <f>AVERAGE(AH5:AH300)</f>
+        <v>8.1409638554216865</v>
+      </c>
+      <c r="CA8" s="18">
+        <f>AVERAGE(AI5:AI300)</f>
+        <v>12.057831325301205</v>
+      </c>
+      <c r="CB8" s="24">
+        <f t="shared" si="0"/>
+        <v>7286606.5067248233</v>
+      </c>
+      <c r="CC8" s="1">
+        <f t="shared" si="1"/>
+        <v>593200.00199927262</v>
+      </c>
+      <c r="CD8" s="1">
+        <f t="shared" si="2"/>
+        <v>878606.72191930155</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
@@ -3169,8 +3388,39 @@
       <c r="BU9" s="11">
         <v>12.2</v>
       </c>
+      <c r="BW9" s="1">
+        <v>2009</v>
+      </c>
+      <c r="BX9" s="18">
+        <f>SUM(AM5:AM300)</f>
+        <v>758929</v>
+      </c>
+      <c r="BY9" s="18">
+        <f>AVERAGE(AN5:AN300)</f>
+        <v>10.646987951807231</v>
+      </c>
+      <c r="BZ9" s="18">
+        <f>AVERAGE(AO5:AO300)</f>
+        <v>8.2843373493975943</v>
+      </c>
+      <c r="CA9" s="18">
+        <f>AVERAGE(AP5:AP300)</f>
+        <v>13.409638554216862</v>
+      </c>
+      <c r="CB9" s="24">
+        <f t="shared" si="0"/>
+        <v>7128109.878918183</v>
+      </c>
+      <c r="CC9" s="1">
+        <f t="shared" si="1"/>
+        <v>590516.66900531866</v>
+      </c>
+      <c r="CD9" s="1">
+        <f t="shared" si="2"/>
+        <v>955853.77051035361</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -3390,8 +3640,39 @@
       <c r="BU10" s="11">
         <v>14.8</v>
       </c>
+      <c r="BW10" s="1">
+        <v>2010</v>
+      </c>
+      <c r="BX10" s="18">
+        <f>SUM(AT5:AT300)</f>
+        <v>775835</v>
+      </c>
+      <c r="BY10" s="18">
+        <f>AVERAGE(AU5:AU6300)</f>
+        <v>11.068674698795178</v>
+      </c>
+      <c r="BZ10" s="18">
+        <f>AVERAGE(AV5:AV6300)</f>
+        <v>8.6012048192771076</v>
+      </c>
+      <c r="CA10" s="18">
+        <f>AVERAGE(AW5:AW6300)</f>
+        <v>13.972289156626507</v>
+      </c>
+      <c r="CB10" s="24">
+        <f t="shared" si="0"/>
+        <v>7009285.4032872552</v>
+      </c>
+      <c r="CC10" s="1">
+        <f t="shared" si="1"/>
+        <v>602882.99390443019</v>
+      </c>
+      <c r="CD10" s="1">
+        <f t="shared" si="2"/>
+        <v>979357.6243605098</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
@@ -3611,8 +3892,39 @@
       <c r="BU11" s="11">
         <v>12</v>
       </c>
+      <c r="BW11" s="1">
+        <v>2011</v>
+      </c>
+      <c r="BX11" s="1">
+        <f>SUM(BA5:BA300)</f>
+        <v>785486</v>
+      </c>
+      <c r="BY11" s="18">
+        <f>AVERAGE(BB5:BB300)</f>
+        <v>11.316867469879515</v>
+      </c>
+      <c r="BZ11" s="18">
+        <f>AVERAGE(BC5:BC300)</f>
+        <v>8.7831325301204846</v>
+      </c>
+      <c r="CA11" s="18">
+        <f>AVERAGE(BD5:BD300)</f>
+        <v>14.278313253012044</v>
+      </c>
+      <c r="CB11" s="24">
+        <f t="shared" si="0"/>
+        <v>6940842.9681677865</v>
+      </c>
+      <c r="CC11" s="1">
+        <f t="shared" si="1"/>
+        <v>609623.43660172506</v>
+      </c>
+      <c r="CD11" s="1">
+        <f t="shared" si="2"/>
+        <v>991035.30139465549</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -3832,8 +4144,39 @@
       <c r="BU12" s="11">
         <v>10.199999999999999</v>
       </c>
+      <c r="BW12" s="1">
+        <v>2012</v>
+      </c>
+      <c r="BX12" s="18">
+        <f>SUM(BH5:BH300)</f>
+        <v>781594</v>
+      </c>
+      <c r="BY12" s="18">
+        <f>AVERAGE(BI5:BI300)</f>
+        <v>11.401204819277105</v>
+      </c>
+      <c r="BZ12" s="18">
+        <f>AVERAGE(BJ5:BJ300)</f>
+        <v>8.9313253012048204</v>
+      </c>
+      <c r="CA12" s="18">
+        <f>AVERAGE(BK5:BK300)</f>
+        <v>14.29277108433735</v>
+      </c>
+      <c r="CB12" s="24">
+        <f t="shared" si="0"/>
+        <v>6855363.2040579123</v>
+      </c>
+      <c r="CC12" s="1">
+        <f t="shared" si="1"/>
+        <v>612274.78833350982</v>
+      </c>
+      <c r="CD12" s="1">
+        <f t="shared" si="2"/>
+        <v>979821.36975589173</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -4053,8 +4396,39 @@
       <c r="BU13" s="11">
         <v>11.7</v>
       </c>
+      <c r="BW13" s="1">
+        <v>2013</v>
+      </c>
+      <c r="BX13" s="18">
+        <f>SUM(BO5:BO300)</f>
+        <v>780102</v>
+      </c>
+      <c r="BY13" s="18">
+        <f>AVERAGE(BP6:BP300)</f>
+        <v>11.339024390243901</v>
+      </c>
+      <c r="BZ13" s="18">
+        <f>AVERAGE(BQ6:BQ300)</f>
+        <v>8.806097560975612</v>
+      </c>
+      <c r="CA13" s="18">
+        <f>AVERAGE(BR6:BR300)</f>
+        <v>14.245121951219508</v>
+      </c>
+      <c r="CB13" s="24">
+        <f t="shared" si="0"/>
+        <v>6879798.236179824</v>
+      </c>
+      <c r="CC13" s="1">
+        <f t="shared" si="1"/>
+        <v>605841.74467627471</v>
+      </c>
+      <c r="CD13" s="1">
+        <f t="shared" si="2"/>
+        <v>980035.6487416646</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -4275,7 +4649,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="15" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
@@ -4496,7 +4870,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="16" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
@@ -4717,7 +5091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
@@ -4938,7 +5312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
@@ -5159,7 +5533,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="19" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
@@ -5380,7 +5754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -5601,7 +5975,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="21" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>11</v>
       </c>
@@ -5822,7 +6196,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="22" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>11</v>
       </c>
@@ -6043,7 +6417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>11</v>
       </c>
@@ -6264,7 +6638,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="24" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>11</v>
       </c>
@@ -6485,7 +6859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
@@ -6706,7 +7080,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="26" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>11</v>
       </c>
@@ -6927,7 +7301,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="27" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
@@ -7148,7 +7522,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="28" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>11</v>
       </c>
@@ -7369,7 +7743,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="29" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>11</v>
       </c>
@@ -7590,7 +7964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>11</v>
       </c>
@@ -7811,7 +8185,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="31" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>11</v>
       </c>
@@ -8032,7 +8406,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="32" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>11</v>
       </c>
@@ -8253,7 +8627,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="33" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>11</v>
       </c>
@@ -8474,7 +8848,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="34" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>11</v>
       </c>
@@ -8695,7 +9069,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="35" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>11</v>
       </c>
@@ -8916,7 +9290,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="36" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>11</v>
       </c>
@@ -9137,7 +9511,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="37" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>11</v>
       </c>
@@ -9358,7 +9732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>11</v>
       </c>
@@ -9579,7 +9953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>11</v>
       </c>
@@ -9800,7 +10174,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="40" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>11</v>
       </c>
@@ -10021,7 +10395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>11</v>
       </c>
@@ -10242,7 +10616,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="42" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>11</v>
       </c>
@@ -10463,7 +10837,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="43" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>11</v>
       </c>
@@ -10684,7 +11058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
         <v>11</v>
       </c>
@@ -10905,7 +11279,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="45" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
         <v>11</v>
       </c>
@@ -11126,7 +11500,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="46" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>11</v>
       </c>
@@ -11347,7 +11721,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="47" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
         <v>11</v>
       </c>
@@ -11568,7 +11942,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="48" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
         <v>11</v>
       </c>
@@ -11789,7 +12163,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="49" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
         <v>11</v>
       </c>
@@ -12010,7 +12384,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="50" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
         <v>11</v>
       </c>
@@ -12231,7 +12605,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="51" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
@@ -12452,7 +12826,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="52" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>11</v>
       </c>
@@ -12673,7 +13047,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="53" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
         <v>11</v>
       </c>
@@ -12894,7 +13268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>11</v>
       </c>
@@ -13115,7 +13489,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="55" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
         <v>11</v>
       </c>
@@ -13336,7 +13710,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="56" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>11</v>
       </c>
@@ -13557,7 +13931,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="57" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
         <v>11</v>
       </c>
@@ -13778,7 +14152,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="58" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>11</v>
       </c>
@@ -13999,7 +14373,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="59" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>11</v>
       </c>
@@ -14220,7 +14594,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="60" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>11</v>
       </c>
@@ -14441,7 +14815,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
         <v>11</v>
       </c>
@@ -14662,7 +15036,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="62" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
         <v>11</v>
       </c>
@@ -14883,7 +15257,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="63" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>11</v>
       </c>
@@ -15104,7 +15478,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="64" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>11</v>
       </c>
@@ -15325,7 +15699,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="65" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>11</v>
       </c>
@@ -15546,7 +15920,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="66" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
         <v>11</v>
       </c>
@@ -15767,7 +16141,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="67" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>11</v>
       </c>
@@ -15988,7 +16362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
         <v>11</v>
       </c>
@@ -16209,7 +16583,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="69" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
         <v>11</v>
       </c>
@@ -16430,7 +16804,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="70" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
         <v>11</v>
       </c>
@@ -16651,7 +17025,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="71" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
         <v>11</v>
       </c>
@@ -16872,7 +17246,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="72" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="10" t="s">
         <v>11</v>
       </c>
@@ -17093,7 +17467,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="73" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="10" t="s">
         <v>11</v>
       </c>
@@ -17314,7 +17688,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="74" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
         <v>11</v>
       </c>
@@ -17535,7 +17909,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="75" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="10" t="s">
         <v>11</v>
       </c>
@@ -17756,7 +18130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
         <v>11</v>
       </c>
@@ -17977,7 +18351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="10" t="s">
         <v>11</v>
       </c>
@@ -18198,7 +18572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="10" t="s">
         <v>11</v>
       </c>
@@ -18419,7 +18793,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="79" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="10" t="s">
         <v>11</v>
       </c>
@@ -18640,7 +19014,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="80" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
         <v>11</v>
       </c>
@@ -18861,7 +19235,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="81" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="10" t="s">
         <v>11</v>
       </c>
@@ -19082,7 +19456,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="82" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="10" t="s">
         <v>11</v>
       </c>
@@ -19303,7 +19677,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="83" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="10" t="s">
         <v>11</v>
       </c>
@@ -19524,7 +19898,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="84" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
         <v>11</v>
       </c>
@@ -19745,7 +20119,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="85" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="10" t="s">
         <v>11</v>
       </c>
@@ -19966,7 +20340,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="86" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="10" t="s">
         <v>11</v>
       </c>
@@ -20187,7 +20561,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="87" spans="1:73" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:73" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>11</v>
       </c>
